--- a/Datos/Anuario2024/140104_EscuelasDeportivasMunicipales.xlsx
+++ b/Datos/Anuario2024/140104_EscuelasDeportivasMunicipales.xlsx
@@ -1,157 +1,333 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3 graf1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="25" r:id="rId1"/>
+    <sheet name="1" sheetId="6" r:id="rId2"/>
+    <sheet name="2" sheetId="7" r:id="rId3"/>
+    <sheet name="3" sheetId="8" r:id="rId4"/>
+    <sheet name="3 graf1" sheetId="18" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_5">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
     <definedName name="_R3_5">'[2]9.5'!$A$1:$H$7</definedName>
     <definedName name="_R3_6">'[2]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">'[2]9.7'!$A$1:$F$7</definedName>
     <definedName name="_R3_9">'[2]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">'2'!#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">'2'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3 graf1'!$A$1:$B$28</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Karate</t>
+  </si>
+  <si>
+    <t>Esgrima</t>
+  </si>
+  <si>
+    <t>Voleibol</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Atletismo</t>
+  </si>
+  <si>
+    <t>Bádminton</t>
+  </si>
+  <si>
+    <t>Baloncesto</t>
+  </si>
+  <si>
+    <t>Balonmano</t>
+  </si>
+  <si>
+    <t>Gimnasia</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Pelota Valenciana</t>
+  </si>
+  <si>
+    <t>Remo</t>
+  </si>
+  <si>
+    <t>Ajedrez</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Concertado</t>
+  </si>
+  <si>
+    <t>Fútbol Femenino</t>
+  </si>
+  <si>
+    <t>Fútbol-sala</t>
+  </si>
+  <si>
+    <t>Pelota (Frontenis)</t>
+  </si>
+  <si>
+    <t>Tenis de Mesa</t>
+  </si>
+  <si>
+    <t>Waterpolo</t>
+  </si>
+  <si>
+    <t>Deportes Adaptados</t>
+  </si>
+  <si>
+    <t>Triatlón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triatlón </t>
+  </si>
+  <si>
+    <t>Colpbol</t>
+  </si>
+  <si>
+    <t>ESCUELAS DEPORTIVAS MUNICIPALES</t>
+  </si>
+  <si>
+    <t>Padel</t>
+  </si>
+  <si>
+    <t>Judo</t>
+  </si>
+  <si>
+    <t>Taekwondo</t>
+  </si>
+  <si>
+    <r>
+      <t>FEDI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Predeporte </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(2) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad Física de Base </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(1) </t>
+    </r>
+  </si>
+  <si>
+    <t>Niños</t>
+  </si>
+  <si>
+    <t>Niñas</t>
+  </si>
+  <si>
+    <t>Pádel</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2. Número de grupos según deporte. Curso 2023/2024</t>
+  </si>
+  <si>
+    <t>1. Número de centros según titularidad. Curso 2023/2024</t>
+  </si>
+  <si>
+    <t>3. Alumnado según deporte y sexo. Curso 2023/2024</t>
+  </si>
+  <si>
+    <t>Nota: (1) Alumnado de 4 y 5 años (Etapa Infantil). (2) Alumnado de 6 y 7 años (Etapa Primaria, primer ciclo). (3) Federación Deportiva para personas con Discapacidad Intelectual.</t>
+  </si>
+  <si>
+    <t>Deportes adaptados</t>
+  </si>
+  <si>
+    <t>Nota: (1) Alumnado de 4 y 5 años (Etapa Infantil). (2) Alumnado de 6 y 7 años (Etapa Primaria, primer ciclo).  (3) Federación Deportiva para personas con Discapacidad Intelectual.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _P_t_s_-;\-* #,##0.0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _P_t_s_-;\-* #,##0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _P_t_s_-;\-* #,##0.0\ _P_t_s_-;_-* &quot;-&quot;\ _P_t_s_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <u/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-      <u val="single"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,94 +362,92 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -342,13 +516,85 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5031105</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="220980" y="260985"/>
+          <a:ext cx="5181600" cy="4657725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -589,8 +835,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1468,1271 +1714,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="45.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>ESCUELAS DEPORTIVAS MUNICIPALES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="8" t="n"/>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.7109375" customWidth="1" style="1" min="1" max="4"/>
+    <col min="1" max="4" width="11.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>1. Número de centros según titularidad. Curso 2023/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="inlineStr">
-        <is>
-          <t>Concertado</t>
-        </is>
-      </c>
-      <c r="D3" s="22" t="inlineStr">
-        <is>
-          <t>Privado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>80</v>
       </c>
-      <c r="B4" s="27" t="n">
+      <c r="B4" s="6">
         <v>72</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="6">
         <v>8</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="8" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="33" t="n"/>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="29.7109375" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>2. Número de grupos según deporte. Curso 2023/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="25" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25">
         <v>427</v>
       </c>
-      <c r="C4" s="25" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actividad Física de Base (1) </t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Predeporte (2) </t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Atletismo</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="21" t="inlineStr">
-        <is>
-          <t>Bádminton</t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Baloncesto</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="21" t="inlineStr">
-        <is>
-          <t>Ajedrez</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Esgrima</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>Deportes Adaptados</t>
-        </is>
-      </c>
-      <c r="B12" s="27" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Fútbol Femenino</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="21" t="inlineStr">
-        <is>
-          <t>Fútbol-sala</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Gimnasia</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="21" t="inlineStr">
-        <is>
-          <t>Balonmano</t>
-        </is>
-      </c>
-      <c r="B16" s="27" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Hockey</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="21" t="inlineStr">
-        <is>
-          <t>Karate</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>Pelota (Frontenis)</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>Pelota Valenciana</t>
-        </is>
-      </c>
-      <c r="B20" s="27" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>Tenis de Mesa</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t>Triatlón</t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
-        <is>
-          <t>Voleibol</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="23" t="inlineStr">
-        <is>
-          <t>Waterpolo</t>
-        </is>
-      </c>
-      <c r="B24" s="27" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Rugby</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="23" t="inlineStr">
-        <is>
-          <t>Colpbol</t>
-        </is>
-      </c>
-      <c r="B26" s="27" t="n">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>Padel</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="23" t="inlineStr">
-        <is>
-          <t>Remo</t>
-        </is>
-      </c>
-      <c r="B28" s="27" t="n">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>Judo</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="23" t="inlineStr">
-        <is>
-          <t>Taekwondo</t>
-        </is>
-      </c>
-      <c r="B30" s="27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="12" t="inlineStr">
-        <is>
-          <t>FEDI (3)</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>Nota: (1) Alumnado de 4 y 5 años (Etapa Infantil). (2) Alumnado de 6 y 7 años (Etapa Primaria, primer ciclo). (3) Federación Deportiva para personas con Discapacidad Intelectual.</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
-        </is>
-      </c>
-      <c r="B33" s="14" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="14" t="n"/>
+    <row r="32" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="81" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="29.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>3. Alumnado según deporte y sexo. Curso 2023/2024</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="30" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="inlineStr">
-        <is>
-          <t>Niños</t>
-        </is>
-      </c>
-      <c r="D3" s="22" t="inlineStr">
-        <is>
-          <t>Niñas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="25">
         <f>SUM(B5:B30)</f>
-        <v/>
+        <v>5400</v>
       </c>
       <c r="C4" s="25">
-        <f>SUM(C5:C30)</f>
-        <v/>
+        <f t="shared" ref="C4:D4" si="0">SUM(C5:C30)</f>
+        <v>2958</v>
       </c>
       <c r="D4" s="25">
-        <f>SUM(D5:D30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actividad Física de Base (1) </t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+        <f t="shared" si="0"/>
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
         <v>323</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>170</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Predeporte (2) </t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="27">
         <v>523</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="27">
         <v>324</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="27">
         <v>199</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Atletismo</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
         <v>245</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>95</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="21" t="inlineStr">
-        <is>
-          <t>Bádminton</t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27">
         <v>219</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="27">
         <v>124</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="27">
         <v>95</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>Baloncesto</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>299</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>152</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>147</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="21" t="inlineStr">
-        <is>
-          <t>Ajedrez</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="27">
         <v>971</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="27">
         <v>649</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="27">
         <v>322</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Esgrima</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>41</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="21" t="inlineStr">
-        <is>
-          <t>Deportes adaptados</t>
-        </is>
-      </c>
-      <c r="B12" s="27" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="27">
         <v>65</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="27">
         <v>46</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>Fútbol Femenino</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="21" t="inlineStr">
-        <is>
-          <t>Fútbol-sala</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="27">
         <v>141</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="27">
         <v>123</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>Gimnasia</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7">
         <v>258</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>251</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="21" t="inlineStr">
-        <is>
-          <t>Balonmano</t>
-        </is>
-      </c>
-      <c r="B16" s="27" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27">
         <v>273</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" s="27">
         <v>177</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="27">
         <v>96</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>Hockey</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7">
         <v>571</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>308</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="7">
         <v>263</v>
       </c>
-      <c r="E17" s="14" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="21" t="inlineStr">
-        <is>
-          <t>Karate</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="n">
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="27">
         <v>174</v>
       </c>
-      <c r="C18" s="27" t="n">
+      <c r="C18" s="27">
         <v>124</v>
       </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>Pelota (Frontenis)</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
         <v>78</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>52</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>26</v>
       </c>
-      <c r="E19" s="14" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>Pelota Valenciana</t>
-        </is>
-      </c>
-      <c r="B20" s="27" t="n">
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="27">
         <v>113</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="27">
         <v>75</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="27">
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12" t="inlineStr">
-        <is>
-          <t>Tenis de Mesa</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
         <v>60</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>58</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Triatlón </t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="27">
         <v>86</v>
       </c>
-      <c r="C22" s="27" t="n">
+      <c r="C22" s="27">
         <v>42</v>
       </c>
-      <c r="D22" s="27" t="n">
+      <c r="D22" s="27">
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12" t="inlineStr">
-        <is>
-          <t>Voleibol</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
         <v>719</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>238</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="7">
         <v>481</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="21" t="inlineStr">
-        <is>
-          <t>Rugby</t>
-        </is>
-      </c>
-      <c r="B24" s="27" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6">
         <v>40</v>
       </c>
-      <c r="C24" s="27" t="n">
+      <c r="C24" s="6">
         <v>29</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>Waterpolo</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7">
         <v>28</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="7">
         <v>8</v>
       </c>
-      <c r="E25" s="14" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="21" t="inlineStr">
-        <is>
-          <t>Remo</t>
-        </is>
-      </c>
-      <c r="B26" s="27" t="n">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="27">
         <v>15</v>
       </c>
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="27">
         <v>12</v>
       </c>
-      <c r="D26" s="27" t="n">
+      <c r="D26" s="27">
         <v>3</v>
       </c>
-      <c r="E26" s="14" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="26" t="inlineStr">
-        <is>
-          <t>Colpbol</t>
-        </is>
-      </c>
-      <c r="B27" s="28" t="n">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28">
         <v>36</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="28">
         <v>19</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="D27" s="28">
         <v>17</v>
       </c>
-      <c r="E27" s="14" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="21" t="inlineStr">
-        <is>
-          <t>Pádel</t>
-        </is>
-      </c>
-      <c r="B28" s="27" t="n">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="27">
         <v>44</v>
       </c>
-      <c r="C28" s="27" t="n">
+      <c r="C28" s="27">
         <v>30</v>
       </c>
-      <c r="D28" s="27" t="n">
+      <c r="D28" s="27">
         <v>14</v>
       </c>
-      <c r="E28" s="14" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>FEDI (3)</t>
-        </is>
-      </c>
-      <c r="B29" s="28" t="n">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="B29" s="28">
+        <v>31</v>
+      </c>
+      <c r="C29" s="28">
         <v>29</v>
       </c>
-      <c r="D29" s="28" t="n">
+      <c r="D29" s="28">
         <v>2</v>
       </c>
-      <c r="E29" s="14" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="21" t="inlineStr">
-        <is>
-          <t>Judo</t>
-        </is>
-      </c>
-      <c r="B30" s="27" t="n">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27">
         <v>24</v>
       </c>
-      <c r="C30" s="27" t="n">
+      <c r="C30" s="27">
         <v>14</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="27">
         <v>10</v>
       </c>
-      <c r="E30" s="14" t="n"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>Nota: (1) Alumnado de 4 y 5 años (Etapa Infantil). (2) Alumnado de 6 y 7 años (Etapa Primaria, primer ciclo).  (3) Federación Deportiva para personas con Discapacidad Intelectual.</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Fundación Deportiva Municipal. Ayuntamiento de València. </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="29" t="n"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="88" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja13">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="18" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" style="18" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="18" min="3" max="3"/>
-    <col width="28.5703125" customWidth="1" style="18" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="18" min="5" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="14">
-      <c r="D1" s="15" t="n"/>
-    </row>
-    <row r="2">
-      <c r="D2" s="16" t="n"/>
-      <c r="E2" s="17" t="n"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="19" t="n"/>
-      <c r="E3" s="20" t="n"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="19" t="n"/>
-      <c r="E4" s="20" t="n"/>
-    </row>
-    <row r="5">
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="20" t="n"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="19" t="n"/>
-      <c r="E6" s="20" t="n"/>
-    </row>
-    <row r="7">
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="20" t="n"/>
-    </row>
-    <row r="8">
-      <c r="D8" s="19" t="n"/>
-      <c r="E8" s="20" t="n"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="20" t="n"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="20" t="n"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="20" t="n"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="19" t="n"/>
-      <c r="E12" s="20" t="n"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="19" t="n"/>
-      <c r="E13" s="20" t="n"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="19" t="n"/>
-      <c r="E14" s="20" t="n"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="19" t="n"/>
-      <c r="E15" s="20" t="n"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="20" t="n"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="19" t="n"/>
-      <c r="E17" s="20" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="19" t="n"/>
-      <c r="E18" s="20" t="n"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="19" t="n"/>
-      <c r="E19" s="20" t="n"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="19" t="n"/>
-      <c r="E20" s="20" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="19" t="n"/>
-      <c r="E21" s="20" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="19" t="n"/>
-      <c r="E22" s="20" t="n"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="19" t="n"/>
-      <c r="E23" s="20" t="n"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="19" t="n"/>
-      <c r="E24" s="20" t="n"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="19" t="n"/>
-      <c r="E25" s="20" t="n"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="20" t="n"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="19" t="n"/>
-      <c r="E27" s="20" t="n"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="19" t="n"/>
-      <c r="E28" s="20" t="n"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="19" t="n"/>
-      <c r="E29" s="20" t="n"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="19" t="n"/>
-      <c r="E30" s="20" t="n"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="19" t="n"/>
-      <c r="E31" s="20" t="n"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="19" t="n"/>
-      <c r="E32" s="20" t="n"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="19" t="n"/>
-      <c r="E33" s="20" t="n"/>
+    <row r="1" spans="4:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>